--- a/Robotic_arm_motors.xlsx
+++ b/Robotic_arm_motors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilag\OneDrive\Documentos\windrobo\Instrumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilag\OneDrive\Documentos\windrobo\Instrumentation\Personal-proyects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3C0BED-9846-4891-8EA2-2BC26C0E7B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAC7D6B-58C1-4C71-81FB-BD48A6A3ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C31714CA-C801-4910-9E8E-FD79C6712CC7}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>10.46</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>6.84</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>9.33</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>6.31</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>2.04</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
